--- a/individual_results/avey/333.xlsx
+++ b/individual_results/avey/333.xlsx
@@ -576,13 +576,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0.2</v>
@@ -649,13 +649,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" t="n">
         <v>0.5</v>
@@ -715,22 +715,18 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0.4</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="Q4" t="n">
         <v>0.2857142857142858</v>
@@ -778,22 +774,18 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0.4545454545454545</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.4166666666666667</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="n">
         <v>0.5555555555555556</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7692307692307692</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="Q5" t="n">
         <v>0.3846153846153846</v>
@@ -848,13 +840,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.52129602861432</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0.8262346571285599</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3558398982930783</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -866,7 +858,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4933965394160924</v>
+        <v>0.17376534287144</v>
       </c>
       <c r="Q6" t="n">
         <v>0.52129602861432</v>
@@ -994,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -1067,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -1085,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
         <v>1</v>
@@ -1133,23 +1125,17 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>1</v>
       </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="n">
         <v>2</v>
       </c>
